--- a/DataCollection/Correlation/Rank_Correlation_Team_Stats.xlsx
+++ b/DataCollection/Correlation/Rank_Correlation_Team_Stats.xlsx
@@ -322,10 +322,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U51"/>
+  <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -403,3351 +403,3217 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9970443349753695</v>
+        <v>-0.1807881773399014</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9881773399014778</v>
+        <v>0.1049261083743842</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9973303670745273</v>
+        <v>-0.008231368186874199</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9977753058954394</v>
+        <v>0.05183537263626248</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9982202447163515</v>
+        <v>-0.03893214682981094</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9875417130144605</v>
+        <v>-0.01312569521690765</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9942157953281424</v>
+        <v>0.2565072302558398</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9973303670745273</v>
+        <v>0.1230255839822024</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9942157953281424</v>
+        <v>0.1230255839822024</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9995550611790879</v>
+        <v>0.117686318131257</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9968854282536151</v>
+        <v>0.09766407119021137</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9906562847608453</v>
+        <v>0.02024471635150171</v>
       </c>
       <c r="N2" t="n">
-        <v>0.996440489432703</v>
+        <v>0.2275862068965517</v>
       </c>
       <c r="O2" t="n">
-        <v>0.992880978865406</v>
+        <v>0.1639599555061179</v>
       </c>
       <c r="P2" t="n">
-        <v>0.9982202447163515</v>
+        <v>0.03448275862068961</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9937708565072303</v>
+        <v>-0.1657397107897665</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9973303670745273</v>
+        <v>-0.1430478309232481</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9973303670745273</v>
+        <v>0.642714126807564</v>
       </c>
       <c r="T2" t="n">
-        <v>0.9955506117908788</v>
+        <v>-0.0260289210233593</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9937708565072303</v>
+        <v>0.1288097886540601</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>MP</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.9945812807881773</v>
+        <v>0.04679802955665024</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.98128078817734</v>
+        <v>-0.2862068965517242</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.9942157953281423</v>
+        <v>-0.0763070077864294</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.9959955506117908</v>
+        <v>-0.2186874304783093</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.9977753058954393</v>
+        <v>-0.3526140155728588</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.9884315906562848</v>
+        <v>-0.4518353726362625</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.9933259176863181</v>
+        <v>-0.1141268075639599</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.9937708565072303</v>
+        <v>0.02469410456062293</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.9946607341490545</v>
+        <v>-0.1977753058954395</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.9959955506117908</v>
+        <v>0.4843159065628476</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.9951056729699665</v>
+        <v>0.2436040044493882</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.9906562847608453</v>
+        <v>-0.08832035595105681</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.9897664071190211</v>
+        <v>-0.03448275862068972</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.9959955506117908</v>
+        <v>0.2044493882091213</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.9942157953281423</v>
+        <v>-0.1167964404894326</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.9946607341490545</v>
+        <v>0.1114571746384873</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.9955506117908788</v>
+        <v>-0.1305895439377085</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.9741935483870967</v>
+        <v>-0.2004449388209122</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.992880978865406</v>
+        <v>0.1381535038932147</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.9897664071190211</v>
+        <v>-0.1559510567296996</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PW</t>
+          <t>FG</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.964039408866995</v>
+        <v>0.4753694581280788</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9729064039408867</v>
+        <v>0.2748768472906404</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9608453837597331</v>
+        <v>0.2582869855394884</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9345939933259176</v>
+        <v>0.2898776418242491</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9537263626251391</v>
+        <v>0.3632925472747497</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9701890989988876</v>
+        <v>0.271635150166852</v>
       </c>
       <c r="H4" t="n">
-        <v>0.985761957730812</v>
+        <v>0.2173526140155728</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9457174638487208</v>
+        <v>0.2044493882091213</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9670745272525028</v>
+        <v>0.1038932146829811</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9279199110122358</v>
+        <v>0.3979977753058954</v>
       </c>
       <c r="L4" t="n">
-        <v>0.978642936596218</v>
+        <v>0.3859844271412681</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9604004449388209</v>
+        <v>0.4389321468298109</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9577308120133482</v>
+        <v>0.6409343715239155</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9706340378197997</v>
+        <v>0.4709677419354839</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9314794215795328</v>
+        <v>0.2845383759733037</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.9341490545050055</v>
+        <v>0.5199110122358176</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9710789766407119</v>
+        <v>0.4780867630700779</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9470522803114572</v>
+        <v>0.418020022246941</v>
       </c>
       <c r="T4" t="n">
-        <v>0.946607341490545</v>
+        <v>0.5114571746384873</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9283648498331479</v>
+        <v>0.418020022246941</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>FGA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.9551724137931035</v>
+        <v>0.09162561576354677</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.9684729064039408</v>
+        <v>-0.1315270935960591</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.9604004449388208</v>
+        <v>-0.06607341490545049</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.932369299221357</v>
+        <v>0.05895439377085654</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.9488320355951056</v>
+        <v>0.1403781979977753</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.9652947719688543</v>
+        <v>-0.1612903225806452</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.9786429365962179</v>
+        <v>-0.4055617352614016</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.9492769744160179</v>
+        <v>-0.3494994438264738</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.9617352614015573</v>
+        <v>-0.4780867630700778</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.9221357063403781</v>
+        <v>-0.06785317018909898</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.9786429365962179</v>
+        <v>-0.4002224694104561</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.9559510567296996</v>
+        <v>-0.2703003337041157</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.9586206896551723</v>
+        <v>0.1279199110122358</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.9626251390433815</v>
+        <v>0.005561735261401579</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.9350389321468298</v>
+        <v>-0.2618464961067852</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.9345939933259177</v>
+        <v>-0.1795328142380423</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.9657397107897665</v>
+        <v>0.1403781979977753</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.9239154616240266</v>
+        <v>-0.09010011123470529</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.9563959955506118</v>
+        <v>-0.09499443826473852</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.9403781979977752</v>
+        <v>-0.1038932146829812</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MOV</t>
+          <t>FG%</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9556650246305418</v>
+        <v>0.59064039408867</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9699507389162562</v>
+        <v>0.5433497536945813</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9626251390433815</v>
+        <v>0.4086763070077865</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9350389321468298</v>
+        <v>0.3481646273637374</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9532814238042269</v>
+        <v>0.3815350389321468</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9657397107897664</v>
+        <v>0.675194660734149</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9795328142380423</v>
+        <v>0.7325917686318131</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9488320355951056</v>
+        <v>0.5991101223581757</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9670745272525028</v>
+        <v>0.6458286985539488</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9305895439377085</v>
+        <v>0.6324805339265851</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9755283648498332</v>
+        <v>0.6222469410456062</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9528364849833147</v>
+        <v>0.7023359288097887</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9630700778642937</v>
+        <v>0.713904338153504</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9626251390433815</v>
+        <v>0.5030033370411569</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9363737486095662</v>
+        <v>0.6062291434927698</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.9377085650723026</v>
+        <v>0.6471635150166852</v>
       </c>
       <c r="R6" t="n">
-        <v>0.9728587319243605</v>
+        <v>0.5434927697441602</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9474972191323693</v>
+        <v>0.6266963292547274</v>
       </c>
       <c r="T6" t="n">
-        <v>0.9461624026696329</v>
+        <v>0.6622914349276974</v>
       </c>
       <c r="U6" t="n">
-        <v>0.9372636262513905</v>
+        <v>0.4972191323692993</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SOS</t>
+          <t>3P</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2384236453201971</v>
+        <v>0.2458128078817734</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1921182266009853</v>
+        <v>0.04532019704433499</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.3201334816462735</v>
+        <v>0.435817575083426</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.54972191323693</v>
+        <v>0.2956618464961068</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3228031145717465</v>
+        <v>0.4117908787541713</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3681868743047831</v>
+        <v>0.4447163515016685</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.7388209121245828</v>
+        <v>0.3931034482758621</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.6226918798665184</v>
+        <v>0.4064516129032258</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.4060066740823136</v>
+        <v>0.317908787541713</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1715239154616239</v>
+        <v>0.2382647385984427</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.2983314794215794</v>
+        <v>0.4055617352614016</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.1595105672969968</v>
+        <v>0.3414905450500556</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.2716351501668521</v>
+        <v>0.5813125695216907</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.8705228031145718</v>
+        <v>0.3899888765294772</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.4674082313681869</v>
+        <v>0.3588431590656285</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.7130144605116797</v>
+        <v>0.2823136818687431</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.4723025583982203</v>
+        <v>0.4638487208008899</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.1470522803114571</v>
+        <v>0.2698553948832035</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.8286985539488321</v>
+        <v>0.367741935483871</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.8456062291434927</v>
+        <v>0.2289210233592881</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SRS</t>
+          <t>3PA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.948768472906404</v>
+        <v>0.196551724137931</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9492610837438423</v>
+        <v>0.02857142857142858</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9528364849833147</v>
+        <v>0.3979977753058954</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9399332591768632</v>
+        <v>0.2956618464961068</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9443826473859844</v>
+        <v>0.3615127919911012</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9630700778642937</v>
+        <v>0.3717463848720801</v>
       </c>
       <c r="H8" t="n">
-        <v>0.982202447163515</v>
+        <v>0.2952169076751947</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9470522803114572</v>
+        <v>0.3695216907675195</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9612903225806452</v>
+        <v>0.2222469410456063</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9234705228031146</v>
+        <v>0.1119021134593994</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9684093437152391</v>
+        <v>0.3330367074527253</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9439377085650723</v>
+        <v>0.2409343715239155</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9430478309232481</v>
+        <v>0.499888765294772</v>
       </c>
       <c r="O8" t="n">
-        <v>0.9617352614015573</v>
+        <v>0.2925472747497219</v>
       </c>
       <c r="P8" t="n">
-        <v>0.935483870967742</v>
+        <v>0.2111234705228031</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9319243604004449</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="R8" t="n">
-        <v>0.9701890989988876</v>
+        <v>0.3312569521690768</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9377085650723026</v>
+        <v>0.09944382647385985</v>
       </c>
       <c r="T8" t="n">
-        <v>0.9515016685205784</v>
+        <v>0.1296996662958844</v>
       </c>
       <c r="U8" t="n">
-        <v>0.9381535038932147</v>
+        <v>-0.03181312569521699</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ORtg</t>
+          <t>3P%</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7270935960591133</v>
+        <v>0.4044334975369458</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5137931034482759</v>
+        <v>0.3315270935960591</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6400444938820913</v>
+        <v>0.4625139043381535</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5479421579532815</v>
+        <v>0.2177975528364849</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5555061179087876</v>
+        <v>0.2004449388209121</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8269187986651836</v>
+        <v>0.5314794215795329</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7922135706340379</v>
+        <v>0.450055617352614</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7637374860956618</v>
+        <v>0.5159065628476085</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7303670745272526</v>
+        <v>0.4091212458286986</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7334816462736373</v>
+        <v>0.4812013348164628</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7228031145717464</v>
+        <v>0.4585094549499443</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7161290322580645</v>
+        <v>0.4340378197997775</v>
       </c>
       <c r="N9" t="n">
-        <v>0.7984427141268076</v>
+        <v>0.6800889877641825</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7953281423804227</v>
+        <v>0.4509454949944383</v>
       </c>
       <c r="P9" t="n">
-        <v>0.7583982202447164</v>
+        <v>0.6053392658509456</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.8006674082313682</v>
+        <v>0.4433815350389322</v>
       </c>
       <c r="R9" t="n">
-        <v>0.8206896551724138</v>
+        <v>0.6169076751946607</v>
       </c>
       <c r="S9" t="n">
-        <v>0.7374860956618465</v>
+        <v>0.4104560622914349</v>
       </c>
       <c r="T9" t="n">
-        <v>0.7815350389321468</v>
+        <v>0.7837597330367074</v>
       </c>
       <c r="U9" t="n">
-        <v>0.7890989988876529</v>
+        <v>0.6213570634037819</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DRtg</t>
+          <t>2P</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.602463054187192</v>
+        <v>0.2773399014778325</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.6310344827586207</v>
+        <v>0.2147783251231528</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.6347052280311458</v>
+        <v>-0.08654060066740832</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6547274749721914</v>
+        <v>-0.01134593993325916</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.7352614015572858</v>
+        <v>-0.03403781979977749</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.8553948832035596</v>
+        <v>0.0100111234705228</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.8798665183537264</v>
+        <v>-0.1194660734149056</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.6760845383759733</v>
+        <v>-0.09410456062291428</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.7810901001112347</v>
+        <v>-0.1586206896551725</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.7374860956618465</v>
+        <v>0.2467185761957731</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.7432703003337042</v>
+        <v>0.01446051167964402</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.7864293659621802</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.6622914349276974</v>
+        <v>-0.0117908787541714</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.8469410456062292</v>
+        <v>0.03937708565072306</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.6013348164627363</v>
+        <v>-0.1394883203559512</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.642714126807564</v>
+        <v>0.1839822024471636</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.713904338153504</v>
+        <v>0.1136818687430479</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.8362625139043383</v>
+        <v>0.1279199110122358</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.5510567296996662</v>
+        <v>0.1292547274749722</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.767741935483871</v>
+        <v>0.1839822024471636</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NRtg</t>
+          <t>2PA</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9605911330049262</v>
+        <v>-0.1059113300492611</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9704433497536946</v>
+        <v>-0.05960591133004933</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9608453837597331</v>
+        <v>-0.3833147942157953</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9341490545050055</v>
+        <v>-0.2943270300333705</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9537263626251391</v>
+        <v>-0.2636262513904337</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9701890989988876</v>
+        <v>-0.3072302558398221</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9804226918798665</v>
+        <v>-0.3886540600667407</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9479421579532814</v>
+        <v>-0.4936596218020022</v>
       </c>
       <c r="J11" t="n">
-        <v>0.967964404894327</v>
+        <v>-0.5314794215795329</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9274749721913237</v>
+        <v>-0.1773081201334816</v>
       </c>
       <c r="L11" t="n">
-        <v>0.978642936596218</v>
+        <v>-0.3677419354838709</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9555061179087876</v>
+        <v>-0.4505005561735262</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9652947719688543</v>
+        <v>-0.4242491657397107</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9621802002224694</v>
+        <v>-0.3045606229143494</v>
       </c>
       <c r="P11" t="n">
-        <v>0.9394883203559511</v>
+        <v>-0.3624026696329254</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.9372636262513905</v>
+        <v>-0.1942157953281425</v>
       </c>
       <c r="R11" t="n">
-        <v>0.9741935483870968</v>
+        <v>-0.2333704115684094</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9506117908787541</v>
+        <v>-0.1394883203559512</v>
       </c>
       <c r="T11" t="n">
-        <v>0.9474972191323693</v>
+        <v>-0.1296996662958843</v>
       </c>
       <c r="U11" t="n">
-        <v>0.9372636262513905</v>
+        <v>-0.05050055617352611</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Pace</t>
+          <t>2P%</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04334975369458127</v>
+        <v>0.6354679802955665</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1128078817733991</v>
+        <v>0.5615763546798029</v>
       </c>
       <c r="D12" t="n">
-        <v>0.08654060066740821</v>
+        <v>0.5457174638487208</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.08209121245828688</v>
+        <v>0.499888765294772</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.096329254727475</v>
+        <v>0.3997775305895439</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.253837597330367</v>
+        <v>0.6484983314794216</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.288987764182425</v>
+        <v>0.7948832035595106</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1724137931034482</v>
+        <v>0.6062291434927698</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.2987764182424917</v>
+        <v>0.6934371523915461</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.07719688542825365</v>
+        <v>0.5875417130144605</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.02691879866518354</v>
+        <v>0.5804226918798665</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.01357063403781988</v>
+        <v>0.6418242491657398</v>
       </c>
       <c r="N12" t="n">
-        <v>0.09454949944382651</v>
+        <v>0.7824249165739711</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.09810901001112349</v>
+        <v>0.6120133481646274</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.1759733036707454</v>
+        <v>0.6008898776418242</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.005116796440489457</v>
+        <v>0.6418242491657398</v>
       </c>
       <c r="R12" t="n">
-        <v>0.03092324805339264</v>
+        <v>0.5292547274749722</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0803114571746385</v>
+        <v>0.6035595105672971</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.3205784204671858</v>
+        <v>0.5052280311457175</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.2716351501668521</v>
+        <v>0.424694104560623</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>FTr</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1586206896551724</v>
+        <v>0.234975369458128</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05615763546798025</v>
+        <v>0.1093596059113301</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2832035595105673</v>
+        <v>0.2818687430478309</v>
       </c>
       <c r="E13" t="n">
-        <v>0.004226918798665213</v>
+        <v>-0.07408231368186868</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1884315906562848</v>
+        <v>-0.2355951056729699</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1150166852057842</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1328142380422692</v>
+        <v>0.03314794215795325</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4117908787541713</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3094549499443826</v>
+        <v>0.16440489432703</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2231368186874305</v>
+        <v>0.1541713014460512</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3374860956618465</v>
+        <v>0.3379310344827586</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1265850945494994</v>
+        <v>0.2556173526140155</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.1110122358175751</v>
+        <v>0.07274749721913232</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.0500556173526141</v>
+        <v>0.01668520578420463</v>
       </c>
       <c r="P13" t="n">
-        <v>0.2476084538375973</v>
+        <v>0.1853170189098999</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.2458286985539488</v>
+        <v>0.3308120133481647</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.1012235817575085</v>
+        <v>0.07986651835372638</v>
       </c>
       <c r="S13" t="n">
-        <v>0.3067853170189099</v>
+        <v>0.2218020022246942</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.2004449388209122</v>
+        <v>-0.01535038932146837</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.0260289210233593</v>
+        <v>0.1813125695216907</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3PAr</t>
+          <t>FTA</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2172413793103448</v>
+        <v>0.1522167487684729</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02068965517241383</v>
+        <v>0.07093596059113305</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3975528364849833</v>
+        <v>0.278309232480534</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3041156840934371</v>
+        <v>-0.07497219132369293</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3508342602892103</v>
+        <v>-0.1902113459399333</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3686318131256953</v>
+        <v>0.07897664071190214</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3846496106785317</v>
+        <v>0.1159065628476085</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4024471635150166</v>
+        <v>0.3721913236929922</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3196885428253615</v>
+        <v>0.131924360400445</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1457174638487208</v>
+        <v>0.2146829810901001</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3690767519466074</v>
+        <v>0.3641824249165739</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3245828698553949</v>
+        <v>0.08743047830923245</v>
       </c>
       <c r="N14" t="n">
-        <v>0.4847608453837597</v>
+        <v>-0.1038932146829812</v>
       </c>
       <c r="O14" t="n">
-        <v>0.317908787541713</v>
+        <v>0.002002224694104604</v>
       </c>
       <c r="P14" t="n">
-        <v>0.246273637374861</v>
+        <v>0.1897664071190212</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.1813125695216907</v>
+        <v>0.2387096774193549</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2965517241379311</v>
+        <v>-0.03759733036707447</v>
       </c>
       <c r="S14" t="n">
-        <v>0.110567296996663</v>
+        <v>0.2484983314794216</v>
       </c>
       <c r="T14" t="n">
-        <v>0.1110122358175751</v>
+        <v>-0.2</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01045606229143492</v>
+        <v>-0.08965517241379306</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TS%</t>
+          <t>FT%</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6482758620689655</v>
+        <v>0.1443349753694582</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5669950738916256</v>
+        <v>0.212807881773399</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6369299221357063</v>
+        <v>0.0803114571746385</v>
       </c>
       <c r="E15" t="n">
-        <v>0.460734149054505</v>
+        <v>0.0140155728587319</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3931034482758621</v>
+        <v>-0.03136818687430476</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6725250278086763</v>
+        <v>0.2662958843159066</v>
       </c>
       <c r="H15" t="n">
-        <v>0.746384872080089</v>
+        <v>-0.1612903225806452</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7045606229143493</v>
+        <v>-0.03581757508342598</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7588431590656285</v>
+        <v>0.3997775305895439</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6542825361512792</v>
+        <v>0.07853170189099001</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6916573971078976</v>
+        <v>0.05539488320355956</v>
       </c>
       <c r="M15" t="n">
-        <v>0.72146829810901</v>
+        <v>0.3312569521690768</v>
       </c>
       <c r="N15" t="n">
-        <v>0.8149054505005562</v>
+        <v>0.3112347052280311</v>
       </c>
       <c r="O15" t="n">
-        <v>0.7032258064516129</v>
+        <v>0.107452725250278</v>
       </c>
       <c r="P15" t="n">
-        <v>0.6809788654060067</v>
+        <v>-0.01846496106785311</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.728587319243604</v>
+        <v>0.3339265850945495</v>
       </c>
       <c r="R15" t="n">
-        <v>0.7308120133481646</v>
+        <v>0.2458286985539488</v>
       </c>
       <c r="S15" t="n">
-        <v>0.728587319243604</v>
+        <v>0.1617352614015573</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8162402669632925</v>
+        <v>0.5443826473859844</v>
       </c>
       <c r="U15" t="n">
-        <v>0.6587319243604004</v>
+        <v>0.3877641824249166</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Off_eFG%</t>
+          <t>ORB</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6004926108374384</v>
+        <v>-0.2359605911330049</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5541871921182266</v>
+        <v>-0.1561576354679803</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6173526140155728</v>
+        <v>-0.2444938820912124</v>
       </c>
       <c r="E16" t="n">
-        <v>0.503448275862069</v>
+        <v>-0.1853170189098998</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4754171301446051</v>
+        <v>-0.08164627363737487</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6676307007786429</v>
+        <v>-0.09588431590656277</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8064516129032258</v>
+        <v>-0.1181312569521691</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6614015572858731</v>
+        <v>-0.2093437152391546</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7063403781979978</v>
+        <v>-0.4037819799777531</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6351501668520578</v>
+        <v>-0.0140155728587319</v>
       </c>
       <c r="L16" t="n">
-        <v>0.6231368186874304</v>
+        <v>-0.07185761957730818</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6872080088987764</v>
+        <v>-0.3494994438264738</v>
       </c>
       <c r="N16" t="n">
-        <v>0.7948832035595106</v>
+        <v>-0.3339265850945494</v>
       </c>
       <c r="O16" t="n">
-        <v>0.7121245828698555</v>
+        <v>-0.1261401557285873</v>
       </c>
       <c r="P16" t="n">
-        <v>0.6413793103448275</v>
+        <v>-0.05717463848720805</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.714349276974416</v>
+        <v>-0.03270300333704124</v>
       </c>
       <c r="R16" t="n">
-        <v>0.7459399332591768</v>
+        <v>0.03715239154616246</v>
       </c>
       <c r="S16" t="n">
-        <v>0.7468298109010011</v>
+        <v>-0.2329254727474972</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7503893214682982</v>
+        <v>-0.01268075639599564</v>
       </c>
       <c r="U16" t="n">
-        <v>0.6222469410456062</v>
+        <v>-0.003781979977752981</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Off_TOV%</t>
+          <t>DRB</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.4098522167487684</v>
+        <v>0.3645320197044335</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.373399014778325</v>
+        <v>0.4039408866995073</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3632925472747497</v>
+        <v>0.5906562847608454</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.3979977753058954</v>
+        <v>0.5586206896551724</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.5897664071190212</v>
+        <v>0.6965517241379311</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.5354838709677419</v>
+        <v>0.3370411568409344</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.3201334816462735</v>
+        <v>0.5319243604004449</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.3308120133481647</v>
+        <v>0.5337041156840934</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.2720800889877641</v>
+        <v>0.5870967741935484</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.1541713014460511</v>
+        <v>0.6418242491657398</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1345939933259177</v>
+        <v>0.4674082313681869</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.07719688542825365</v>
+        <v>0.4585094549499443</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.2244716351501668</v>
+        <v>0.3023359288097887</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.3588431590656285</v>
+        <v>0.6422691879866518</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.1523915461624026</v>
+        <v>0.1510567296996663</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.2177975528364851</v>
+        <v>0.3632925472747497</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.3005561735261402</v>
+        <v>0.5372636262513905</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.3681868743047831</v>
+        <v>0.6169076751946607</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.2992213570634037</v>
+        <v>0.3984427141268075</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.318353726362625</v>
+        <v>0.389098998887653</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Off_ORB%</t>
+          <t>TRB</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.09064039408866997</v>
+        <v>0.1236453201970443</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.09852216748768483</v>
+        <v>0.1674876847290641</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.2369299221357064</v>
+        <v>0.4487208008898776</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.06829810901001121</v>
+        <v>0.5136818687430478</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.04471635150166842</v>
+        <v>0.546607341490545</v>
       </c>
       <c r="G18" t="n">
-        <v>0.103448275862069</v>
+        <v>0.1875417130144605</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1968854282536151</v>
+        <v>0.4451612903225807</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.0402669632925472</v>
+        <v>0.3192436040044494</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.2458286985539488</v>
+        <v>0.1733036707452725</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1946607341490545</v>
+        <v>0.457174638487208</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1145717463848721</v>
+        <v>0.2774193548387097</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.1056729699666297</v>
+        <v>0.2476084538375973</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.1888765294771968</v>
+        <v>0.06696329254727473</v>
       </c>
       <c r="O18" t="n">
-        <v>0.00111234705228036</v>
+        <v>0.3979977753058954</v>
       </c>
       <c r="P18" t="n">
-        <v>0.04338153503893216</v>
+        <v>0.05761957730812017</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.175083426028921</v>
+        <v>0.2516129032258064</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1577308120133482</v>
+        <v>0.4660734149054505</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.1399332591768632</v>
+        <v>0.4549499443826474</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2671857619577308</v>
+        <v>0.3254727474972191</v>
       </c>
       <c r="U18" t="n">
-        <v>0.2315906562847608</v>
+        <v>0.3815350389321468</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Off_FT/FGA</t>
+          <t>AST</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2187192118226601</v>
+        <v>0.4620689655172414</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1389162561576355</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="D19" t="n">
-        <v>0.268075639599555</v>
+        <v>0.1501668520578421</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.04382647385984417</v>
+        <v>0.3410456062291435</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.2311457174638487</v>
+        <v>0.4251390433815351</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2266963292547275</v>
+        <v>0.4433815350389322</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1154616240266964</v>
+        <v>0.2369299221357063</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4629588431590657</v>
+        <v>0.3975528364849833</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4135706340378198</v>
+        <v>0.2747497219132369</v>
       </c>
       <c r="K19" t="n">
-        <v>0.196440489432703</v>
+        <v>0.2707452725250278</v>
       </c>
       <c r="L19" t="n">
-        <v>0.4100111234705228</v>
+        <v>0.2938820912124583</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2778642936596218</v>
+        <v>0.4060066740823137</v>
       </c>
       <c r="N19" t="n">
-        <v>0.06073414905450503</v>
+        <v>0.6952169076751946</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0380422691879867</v>
+        <v>0.2498331479421579</v>
       </c>
       <c r="P19" t="n">
-        <v>0.2182424916573971</v>
+        <v>0.3383759733036708</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.2703003337041157</v>
+        <v>0.09899888765294773</v>
       </c>
       <c r="R19" t="n">
-        <v>0.032258064516129</v>
+        <v>0.3766407119021135</v>
       </c>
       <c r="S19" t="n">
-        <v>0.260511679644049</v>
+        <v>0.1417130144605117</v>
       </c>
       <c r="T19" t="n">
-        <v>0.07363737486095667</v>
+        <v>0.1288097886540601</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1510567296996663</v>
+        <v>0.3201334816462736</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Def_eFG%</t>
+          <t>STL</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.4852216748768472</v>
+        <v>0.2965517241379311</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.4931034482758621</v>
+        <v>0.2147783251231528</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.6618464961067854</v>
+        <v>0.04338153503893216</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.6088987764182425</v>
+        <v>-0.04516129032258065</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.7285873192436041</v>
+        <v>-0.06473859844271423</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.7450500556173527</v>
+        <v>0.232035595105673</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.8865406006674081</v>
+        <v>0.1532814238042269</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.7081201334816463</v>
+        <v>0.02647385984427142</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.7490545050055617</v>
+        <v>0.1359288097886541</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.6329254727474971</v>
+        <v>0.1799777530589544</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.7112347052280312</v>
+        <v>0.5283648498331479</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.7232480533926584</v>
+        <v>0.1163515016685206</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.6315906562847609</v>
+        <v>0.2520578420467185</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.7775305895439377</v>
+        <v>0.08787541713014457</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.6008898776418243</v>
+        <v>0.1666295884315907</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.5830923248053392</v>
+        <v>0.3979977753058954</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.7508342602892102</v>
+        <v>0.1216907675194661</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.8798665183537264</v>
+        <v>0.01134593993325916</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.6938820912124584</v>
+        <v>-0.1221357063403783</v>
       </c>
       <c r="U20" t="n">
-        <v>-0.5679644048943271</v>
+        <v>0.2676307007786429</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Def_TOV%</t>
+          <t>BLK</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3157635467980295</v>
+        <v>0.01231527093596063</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3182266009852217</v>
+        <v>0.2566502463054188</v>
       </c>
       <c r="D21" t="n">
-        <v>0.006006674082313701</v>
+        <v>0.3846496106785317</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.09187986651835378</v>
+        <v>0.3895439377085651</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01490545050055614</v>
+        <v>0.2698553948832035</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1550611790878754</v>
+        <v>0.2177975528364849</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1256952169076752</v>
+        <v>0.2667408231368187</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.08298109010011134</v>
+        <v>0.3859844271412681</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.05494994438264733</v>
+        <v>0.06206896551724139</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1412680756395995</v>
+        <v>0.2186874304783092</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2694104560622914</v>
+        <v>0.35706340378198</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1385984427141268</v>
+        <v>0.349944382647386</v>
       </c>
       <c r="N21" t="n">
-        <v>0.1403781979977753</v>
+        <v>0.2</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0002224694104561165</v>
+        <v>0.3232480533926585</v>
       </c>
       <c r="P21" t="n">
-        <v>0.192880978865406</v>
+        <v>0.1488320355951057</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.1363737486095662</v>
+        <v>0.4496106785317019</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.1096774193548387</v>
+        <v>0.2921023359288097</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.04872080088987762</v>
+        <v>0.3770856507230256</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.1968854282536152</v>
+        <v>-0.01357063403781988</v>
       </c>
       <c r="U21" t="n">
-        <v>0.2774193548387097</v>
+        <v>-0.1515016685205783</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Def_DRB%</t>
+          <t>TOV</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1428571428571429</v>
+        <v>-0.3251231527093597</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4812807881773399</v>
+        <v>-0.452216748768473</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1728587319243604</v>
+        <v>-0.4269187986651835</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3757508342602892</v>
+        <v>-0.5225806451612902</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4749721913236929</v>
+        <v>-0.5341490545050056</v>
       </c>
       <c r="G22" t="n">
-        <v>0.424694104560623</v>
+        <v>-0.5256952169076752</v>
       </c>
       <c r="H22" t="n">
-        <v>0.4949944382647385</v>
+        <v>-0.3957730812013349</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4807563959955506</v>
+        <v>-0.4015572858731924</v>
       </c>
       <c r="J22" t="n">
-        <v>0.460734149054505</v>
+        <v>-0.421579532814238</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5159065628476085</v>
+        <v>-0.2707452725250279</v>
       </c>
       <c r="L22" t="n">
-        <v>0.296106785317019</v>
+        <v>0.08209121245828699</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2996662958843159</v>
+        <v>-0.1795328142380423</v>
       </c>
       <c r="N22" t="n">
-        <v>0.02291434927697444</v>
+        <v>-0.2556173526140155</v>
       </c>
       <c r="O22" t="n">
-        <v>0.2889877641824249</v>
+        <v>-0.3143492769744161</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.03893214682981094</v>
+        <v>-0.2035595105672969</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.2253615127919911</v>
+        <v>-0.2071190211345939</v>
       </c>
       <c r="R22" t="n">
-        <v>0.4442714126807564</v>
+        <v>-0.260956618464961</v>
       </c>
       <c r="S22" t="n">
-        <v>0.3259176863181312</v>
+        <v>-0.3441601779755283</v>
       </c>
       <c r="T22" t="n">
-        <v>0.4700778642936596</v>
+        <v>-0.3494994438264738</v>
       </c>
       <c r="U22" t="n">
-        <v>0.5038932146829811</v>
+        <v>-0.3192436040044493</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Def_FT/FGA</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.4014778325123152</v>
+        <v>-0.4068965517241379</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.2369458128078819</v>
+        <v>-0.3783251231527094</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.3023359288097887</v>
+        <v>-0.3543937708565073</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.4807563959955505</v>
+        <v>-0.6209121245828699</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.2302558398220245</v>
+        <v>-0.3641824249165739</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.2582869855394883</v>
+        <v>-0.1955506117908787</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.2845383759733038</v>
+        <v>-0.2173526140155728</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.2694104560622914</v>
+        <v>-0.2680756395995552</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.5937708565072302</v>
+        <v>-0.4932146829810902</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.3272525027808677</v>
+        <v>-0.2480533926585096</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.189766407119021</v>
+        <v>-0.1555061179087875</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.3303670745272524</v>
+        <v>-0.2400444938820911</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.3490545050055618</v>
+        <v>-0.2947719688542825</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.2222469410456063</v>
+        <v>-0.2338153503893214</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.2498331479421581</v>
+        <v>-0.2071190211345939</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.189321468298109</v>
+        <v>-0.1145717463848721</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.1635150166852057</v>
+        <v>-0.08787541713014457</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.2040044493882092</v>
+        <v>-0.06963292547274746</v>
       </c>
       <c r="T23" t="n">
-        <v>-0.09810901001112349</v>
+        <v>-0.03759733036707447</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.1479421579532814</v>
+        <v>-0.07319243604004444</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Arena</t>
+          <t>PTS</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.01773399014778332</v>
+        <v>0.5458128078817734</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.126600985221675</v>
+        <v>0.2167487684729064</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.05717463848720805</v>
+        <v>0.5070077864293659</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.1853170189098998</v>
+        <v>0.2253615127919911</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01802002224694099</v>
+        <v>0.2987764182424917</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2057842046718577</v>
+        <v>0.4131256952169077</v>
       </c>
       <c r="H24" t="n">
-        <v>0.03448275862068961</v>
+        <v>0.2996662958843159</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.2151279199110123</v>
+        <v>0.4727474972191323</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.2809788654060066</v>
+        <v>0.3156840934371524</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.3103448275862069</v>
+        <v>0.4416017797552837</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.3686318131256952</v>
+        <v>0.5657397107897664</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.2725250278086764</v>
+        <v>0.5150166852057843</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.1136818687430479</v>
+        <v>0.6969966629588431</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.3454949944382648</v>
+        <v>0.6342602892102336</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.03314794215795325</v>
+        <v>0.4295884315906563</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.1292547274749722</v>
+        <v>0.642714126807564</v>
       </c>
       <c r="R24" t="n">
-        <v>0.01979977753058959</v>
+        <v>0.5586206896551724</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.02558398220244706</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="T24" t="n">
-        <v>0.07675194660734153</v>
+        <v>0.642714126807564</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07764182424916577</v>
+        <v>0.5056729699666296</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Attend.</t>
+          <t>W</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.4349753694581281</v>
+        <v>0.9970443349753695</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1857142857142857</v>
+        <v>0.9881773399014778</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4923248053392658</v>
+        <v>0.9973303670745273</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5595105672969967</v>
+        <v>0.9977753058954394</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7294771968854283</v>
+        <v>0.9982202447163515</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3708565072302559</v>
+        <v>0.9875417130144605</v>
       </c>
       <c r="H25" t="n">
-        <v>0.4491657397107898</v>
+        <v>0.9942157953281424</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5639599555061179</v>
+        <v>0.9973303670745273</v>
       </c>
       <c r="J25" t="n">
-        <v>0.4478309232480534</v>
+        <v>0.9942157953281424</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4567296996662958</v>
+        <v>0.9995550611790879</v>
       </c>
       <c r="L25" t="n">
-        <v>0.5056729699666296</v>
+        <v>0.9968854282536151</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5452725250278087</v>
+        <v>0.9906562847608453</v>
       </c>
       <c r="N25" t="n">
-        <v>0.4611790878754172</v>
+        <v>0.996440489432703</v>
       </c>
       <c r="O25" t="n">
-        <v>0.5216907675194661</v>
+        <v>0.992880978865406</v>
       </c>
       <c r="P25" t="n">
-        <v>0.2836484983314794</v>
+        <v>0.9982202447163515</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.3846496106785317</v>
+        <v>0.9937708565072303</v>
       </c>
       <c r="R25" t="n">
-        <v>0.2453837597330367</v>
+        <v>0.9973303670745273</v>
       </c>
       <c r="S25" t="n">
-        <v>0.2529477196885428</v>
+        <v>0.9973303670745273</v>
       </c>
       <c r="T25" t="n">
-        <v>0.1764182424916574</v>
+        <v>0.9955506117908788</v>
       </c>
       <c r="U25" t="n">
-        <v>0.4567296996662958</v>
+        <v>0.9937708565072303</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Attend./G</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.4349753694581281</v>
+        <v>-0.9945812807881773</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2004926108374384</v>
+        <v>-0.98128078817734</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4923248053392658</v>
+        <v>-0.9942157953281423</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5604004449388209</v>
+        <v>-0.9959955506117908</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7294771968854283</v>
+        <v>-0.9977753058954393</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3708565072302559</v>
+        <v>-0.9884315906562848</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4491657397107898</v>
+        <v>-0.9933259176863181</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5639599555061179</v>
+        <v>-0.9937708565072303</v>
       </c>
       <c r="J26" t="n">
-        <v>0.4478309232480534</v>
+        <v>-0.9946607341490545</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4567296996662958</v>
+        <v>-0.9959955506117908</v>
       </c>
       <c r="L26" t="n">
-        <v>0.4945494994438264</v>
+        <v>-0.9951056729699665</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5452725250278087</v>
+        <v>-0.9906562847608453</v>
       </c>
       <c r="N26" t="n">
-        <v>0.4727474972191323</v>
+        <v>-0.9897664071190211</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5216907675194661</v>
+        <v>-0.9959955506117908</v>
       </c>
       <c r="P26" t="n">
-        <v>0.2836484983314794</v>
+        <v>-0.9942157953281423</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.3913236929922136</v>
+        <v>-0.9946607341490545</v>
       </c>
       <c r="R26" t="n">
-        <v>0.2409343715239155</v>
+        <v>-0.9955506117908788</v>
       </c>
       <c r="S26" t="n">
-        <v>0.5310344827586206</v>
+        <v>-0.9741935483870967</v>
       </c>
       <c r="T26" t="n">
-        <v>0.1764182424916574</v>
+        <v>-0.992880978865406</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4567296996662958</v>
+        <v>-0.9897664071190211</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Team</t>
+          <t>PW</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1807881773399015</v>
+        <v>0.964039408866995</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.1049261083743842</v>
+        <v>0.9729064039408867</v>
       </c>
       <c r="D27" t="n">
-        <v>0.00823136818687431</v>
+        <v>0.9608453837597331</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.05183537263626259</v>
+        <v>0.9345939933259176</v>
       </c>
       <c r="F27" t="n">
-        <v>0.03893214682981094</v>
+        <v>0.9537263626251391</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01312569521690765</v>
+        <v>0.9701890989988876</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.2565072302558398</v>
+        <v>0.985761957730812</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.1230255839822025</v>
+        <v>0.9457174638487208</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.1230255839822025</v>
+        <v>0.9670745272525028</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.1176863181312569</v>
+        <v>0.9279199110122358</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.1697441601779754</v>
+        <v>0.978642936596218</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.0202447163515016</v>
+        <v>0.9604004449388209</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.2275862068965517</v>
+        <v>0.9577308120133482</v>
       </c>
       <c r="O27" t="n">
-        <v>-0.163959955506118</v>
+        <v>0.9706340378197997</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.03448275862068972</v>
+        <v>0.9314794215795328</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.1657397107897665</v>
+        <v>0.9341490545050055</v>
       </c>
       <c r="R27" t="n">
-        <v>0.143047830923248</v>
+        <v>0.9710789766407119</v>
       </c>
       <c r="S27" t="n">
-        <v>0.1212458286985539</v>
+        <v>0.9470522803114572</v>
       </c>
       <c r="T27" t="n">
-        <v>0.0260289210233593</v>
+        <v>0.946607341490545</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.12880978865406</v>
+        <v>0.9283648498331479</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.1807881773399014</v>
+        <v>-0.9551724137931035</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1049261083743842</v>
+        <v>-0.9684729064039408</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.008231368186874199</v>
+        <v>-0.9604004449388208</v>
       </c>
       <c r="E28" t="n">
-        <v>0.05183537263626248</v>
+        <v>-0.932369299221357</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.03893214682981094</v>
+        <v>-0.9488320355951056</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.01312569521690765</v>
+        <v>-0.9652947719688543</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2565072302558398</v>
+        <v>-0.9786429365962179</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1230255839822024</v>
+        <v>-0.9492769744160179</v>
       </c>
       <c r="J28" t="n">
-        <v>0.1230255839822024</v>
+        <v>-0.9617352614015573</v>
       </c>
       <c r="K28" t="n">
-        <v>0.117686318131257</v>
+        <v>-0.9221357063403781</v>
       </c>
       <c r="L28" t="n">
-        <v>0.09766407119021137</v>
+        <v>-0.9786429365962179</v>
       </c>
       <c r="M28" t="n">
-        <v>0.02024471635150171</v>
+        <v>-0.9559510567296996</v>
       </c>
       <c r="N28" t="n">
-        <v>0.2275862068965517</v>
+        <v>-0.9586206896551723</v>
       </c>
       <c r="O28" t="n">
-        <v>0.1639599555061179</v>
+        <v>-0.9626251390433815</v>
       </c>
       <c r="P28" t="n">
-        <v>0.03448275862068961</v>
+        <v>-0.9350389321468298</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.1657397107897665</v>
+        <v>-0.9345939933259177</v>
       </c>
       <c r="R28" t="n">
-        <v>-0.1430478309232481</v>
+        <v>-0.9657397107897665</v>
       </c>
       <c r="S28" t="n">
-        <v>0.642714126807564</v>
+        <v>-0.9239154616240266</v>
       </c>
       <c r="T28" t="n">
-        <v>-0.0260289210233593</v>
+        <v>-0.9563959955506118</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1288097886540601</v>
+        <v>-0.9403781979977752</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MP</t>
+          <t>MOV</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.04679802955665024</v>
+        <v>0.9556650246305418</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.2862068965517242</v>
+        <v>0.9699507389162562</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.0763070077864294</v>
+        <v>0.9626251390433815</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.2186874304783093</v>
+        <v>0.9350389321468298</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.3526140155728588</v>
+        <v>0.9532814238042269</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.4518353726362625</v>
+        <v>0.9657397107897664</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.1141268075639599</v>
+        <v>0.9795328142380423</v>
       </c>
       <c r="I29" t="n">
-        <v>0.02469410456062293</v>
+        <v>0.9488320355951056</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.1977753058954395</v>
+        <v>0.9670745272525028</v>
       </c>
       <c r="K29" t="n">
-        <v>0.4843159065628476</v>
+        <v>0.9305895439377085</v>
       </c>
       <c r="L29" t="n">
-        <v>0.2436040044493882</v>
+        <v>0.9755283648498332</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.08832035595105681</v>
+        <v>0.9528364849833147</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.03448275862068972</v>
+        <v>0.9630700778642937</v>
       </c>
       <c r="O29" t="n">
-        <v>0.2044493882091213</v>
+        <v>0.9626251390433815</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.1167964404894326</v>
+        <v>0.9363737486095662</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.1114571746384873</v>
+        <v>0.9377085650723026</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.1305895439377085</v>
+        <v>0.9728587319243605</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.2004449388209122</v>
+        <v>0.9474972191323693</v>
       </c>
       <c r="T29" t="n">
-        <v>0.1381535038932147</v>
+        <v>0.9461624026696329</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.1559510567296996</v>
+        <v>0.9372636262513905</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>FG</t>
+          <t>SOS</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.4753694581280788</v>
+        <v>-0.2384236453201971</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2748768472906404</v>
+        <v>-0.1921182266009853</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2582869855394884</v>
+        <v>-0.3201334816462735</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2898776418242491</v>
+        <v>-0.54972191323693</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3632925472747497</v>
+        <v>-0.3228031145717465</v>
       </c>
       <c r="G30" t="n">
-        <v>0.271635150166852</v>
+        <v>-0.3681868743047831</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2173526140155728</v>
+        <v>-0.7388209121245828</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2044493882091213</v>
+        <v>-0.6226918798665184</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1038932146829811</v>
+        <v>-0.4060066740823136</v>
       </c>
       <c r="K30" t="n">
-        <v>0.3979977753058954</v>
+        <v>-0.1715239154616239</v>
       </c>
       <c r="L30" t="n">
-        <v>0.3859844271412681</v>
+        <v>-0.2983314794215794</v>
       </c>
       <c r="M30" t="n">
-        <v>0.4389321468298109</v>
+        <v>-0.1595105672969968</v>
       </c>
       <c r="N30" t="n">
-        <v>0.6409343715239155</v>
+        <v>-0.2716351501668521</v>
       </c>
       <c r="O30" t="n">
-        <v>0.4709677419354839</v>
+        <v>-0.8705228031145718</v>
       </c>
       <c r="P30" t="n">
-        <v>0.2845383759733037</v>
+        <v>-0.4674082313681869</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.5199110122358176</v>
+        <v>-0.7130144605116797</v>
       </c>
       <c r="R30" t="n">
-        <v>0.4780867630700779</v>
+        <v>-0.4723025583982203</v>
       </c>
       <c r="S30" t="n">
-        <v>0.418020022246941</v>
+        <v>-0.1470522803114571</v>
       </c>
       <c r="T30" t="n">
-        <v>0.5114571746384873</v>
+        <v>-0.8286985539488321</v>
       </c>
       <c r="U30" t="n">
-        <v>0.418020022246941</v>
+        <v>-0.8456062291434927</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>FGA</t>
+          <t>SRS</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.09162561576354677</v>
+        <v>0.948768472906404</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.1315270935960591</v>
+        <v>0.9492610837438423</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.06607341490545049</v>
+        <v>0.9528364849833147</v>
       </c>
       <c r="E31" t="n">
-        <v>0.05895439377085654</v>
+        <v>0.9399332591768632</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1403781979977753</v>
+        <v>0.9443826473859844</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.1612903225806452</v>
+        <v>0.9630700778642937</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.4055617352614016</v>
+        <v>0.982202447163515</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.3494994438264738</v>
+        <v>0.9470522803114572</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.4780867630700778</v>
+        <v>0.9612903225806452</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.06785317018909898</v>
+        <v>0.9234705228031146</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.4002224694104561</v>
+        <v>0.9684093437152391</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.2703003337041157</v>
+        <v>0.9439377085650723</v>
       </c>
       <c r="N31" t="n">
-        <v>0.1279199110122358</v>
+        <v>0.9430478309232481</v>
       </c>
       <c r="O31" t="n">
-        <v>0.005561735261401579</v>
+        <v>0.9617352614015573</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.2618464961067852</v>
+        <v>0.935483870967742</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.1795328142380423</v>
+        <v>0.9319243604004449</v>
       </c>
       <c r="R31" t="n">
-        <v>0.1403781979977753</v>
+        <v>0.9701890989988876</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.09010011123470529</v>
+        <v>0.9377085650723026</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.09499443826473852</v>
+        <v>0.9515016685205784</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.1038932146829812</v>
+        <v>0.9381535038932147</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>FG%</t>
+          <t>ORtg</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.59064039408867</v>
+        <v>0.7270935960591133</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5433497536945813</v>
+        <v>0.5137931034482759</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4086763070077865</v>
+        <v>0.6400444938820913</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3481646273637374</v>
+        <v>0.5479421579532815</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3815350389321468</v>
+        <v>0.5555061179087876</v>
       </c>
       <c r="G32" t="n">
-        <v>0.675194660734149</v>
+        <v>0.8269187986651836</v>
       </c>
       <c r="H32" t="n">
-        <v>0.7325917686318131</v>
+        <v>0.7922135706340379</v>
       </c>
       <c r="I32" t="n">
-        <v>0.5991101223581757</v>
+        <v>0.7637374860956618</v>
       </c>
       <c r="J32" t="n">
-        <v>0.6458286985539488</v>
+        <v>0.7303670745272526</v>
       </c>
       <c r="K32" t="n">
-        <v>0.6324805339265851</v>
+        <v>0.7334816462736373</v>
       </c>
       <c r="L32" t="n">
-        <v>0.6222469410456062</v>
+        <v>0.7228031145717464</v>
       </c>
       <c r="M32" t="n">
-        <v>0.7023359288097887</v>
+        <v>0.7161290322580645</v>
       </c>
       <c r="N32" t="n">
-        <v>0.713904338153504</v>
+        <v>0.7984427141268076</v>
       </c>
       <c r="O32" t="n">
-        <v>0.5030033370411569</v>
+        <v>0.7953281423804227</v>
       </c>
       <c r="P32" t="n">
-        <v>0.6062291434927698</v>
+        <v>0.7583982202447164</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.6471635150166852</v>
+        <v>0.8006674082313682</v>
       </c>
       <c r="R32" t="n">
-        <v>0.5434927697441602</v>
+        <v>0.8206896551724138</v>
       </c>
       <c r="S32" t="n">
-        <v>0.6266963292547274</v>
+        <v>0.7374860956618465</v>
       </c>
       <c r="T32" t="n">
-        <v>0.6622914349276974</v>
+        <v>0.7815350389321468</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4972191323692993</v>
+        <v>0.7890989988876529</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3P</t>
+          <t>DRtg</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2458128078817734</v>
+        <v>-0.602463054187192</v>
       </c>
       <c r="C33" t="n">
-        <v>0.04532019704433499</v>
+        <v>-0.6310344827586207</v>
       </c>
       <c r="D33" t="n">
-        <v>0.435817575083426</v>
+        <v>-0.6347052280311458</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2956618464961068</v>
+        <v>-0.6547274749721914</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4117908787541713</v>
+        <v>-0.7352614015572858</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4447163515016685</v>
+        <v>-0.8553948832035596</v>
       </c>
       <c r="H33" t="n">
-        <v>0.3931034482758621</v>
+        <v>-0.8798665183537264</v>
       </c>
       <c r="I33" t="n">
-        <v>0.4064516129032258</v>
+        <v>-0.6760845383759733</v>
       </c>
       <c r="J33" t="n">
-        <v>0.317908787541713</v>
+        <v>-0.7810901001112347</v>
       </c>
       <c r="K33" t="n">
-        <v>0.2382647385984427</v>
+        <v>-0.7374860956618465</v>
       </c>
       <c r="L33" t="n">
-        <v>0.4055617352614016</v>
+        <v>-0.7432703003337042</v>
       </c>
       <c r="M33" t="n">
-        <v>0.3414905450500556</v>
+        <v>-0.7864293659621802</v>
       </c>
       <c r="N33" t="n">
-        <v>0.5813125695216907</v>
+        <v>-0.6622914349276974</v>
       </c>
       <c r="O33" t="n">
-        <v>0.3899888765294772</v>
+        <v>-0.8469410456062292</v>
       </c>
       <c r="P33" t="n">
-        <v>0.3588431590656285</v>
+        <v>-0.6013348164627363</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.2823136818687431</v>
+        <v>-0.642714126807564</v>
       </c>
       <c r="R33" t="n">
-        <v>0.4638487208008899</v>
+        <v>-0.713904338153504</v>
       </c>
       <c r="S33" t="n">
-        <v>0.2698553948832035</v>
+        <v>-0.8362625139043383</v>
       </c>
       <c r="T33" t="n">
-        <v>0.367741935483871</v>
+        <v>-0.5510567296996662</v>
       </c>
       <c r="U33" t="n">
-        <v>0.2289210233592881</v>
+        <v>-0.767741935483871</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3PA</t>
+          <t>NRtg</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.196551724137931</v>
+        <v>0.9605911330049262</v>
       </c>
       <c r="C34" t="n">
-        <v>0.02857142857142858</v>
+        <v>0.9704433497536946</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3979977753058954</v>
+        <v>0.9608453837597331</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2956618464961068</v>
+        <v>0.9341490545050055</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3615127919911012</v>
+        <v>0.9537263626251391</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3717463848720801</v>
+        <v>0.9701890989988876</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2952169076751947</v>
+        <v>0.9804226918798665</v>
       </c>
       <c r="I34" t="n">
-        <v>0.3695216907675195</v>
+        <v>0.9479421579532814</v>
       </c>
       <c r="J34" t="n">
-        <v>0.2222469410456063</v>
+        <v>0.967964404894327</v>
       </c>
       <c r="K34" t="n">
-        <v>0.1119021134593994</v>
+        <v>0.9274749721913237</v>
       </c>
       <c r="L34" t="n">
-        <v>0.3330367074527253</v>
+        <v>0.978642936596218</v>
       </c>
       <c r="M34" t="n">
-        <v>0.2409343715239155</v>
+        <v>0.9555061179087876</v>
       </c>
       <c r="N34" t="n">
-        <v>0.499888765294772</v>
+        <v>0.9652947719688543</v>
       </c>
       <c r="O34" t="n">
-        <v>0.2925472747497219</v>
+        <v>0.9621802002224694</v>
       </c>
       <c r="P34" t="n">
-        <v>0.2111234705228031</v>
+        <v>0.9394883203559511</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.1724137931034483</v>
+        <v>0.9372636262513905</v>
       </c>
       <c r="R34" t="n">
-        <v>0.3312569521690768</v>
+        <v>0.9741935483870968</v>
       </c>
       <c r="S34" t="n">
-        <v>0.09944382647385985</v>
+        <v>0.9506117908787541</v>
       </c>
       <c r="T34" t="n">
-        <v>0.1296996662958844</v>
+        <v>0.9474972191323693</v>
       </c>
       <c r="U34" t="n">
-        <v>-0.03181312569521699</v>
+        <v>0.9372636262513905</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3P%</t>
+          <t>Pace</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.4044334975369458</v>
+        <v>0.04334975369458127</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3315270935960591</v>
+        <v>-0.1128078817733991</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4625139043381535</v>
+        <v>0.08654060066740821</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2177975528364849</v>
+        <v>-0.08209121245828688</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2004449388209121</v>
+        <v>-0.096329254727475</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5314794215795329</v>
+        <v>-0.253837597330367</v>
       </c>
       <c r="H35" t="n">
-        <v>0.450055617352614</v>
+        <v>-0.288987764182425</v>
       </c>
       <c r="I35" t="n">
-        <v>0.5159065628476085</v>
+        <v>-0.1724137931034482</v>
       </c>
       <c r="J35" t="n">
-        <v>0.4091212458286986</v>
+        <v>-0.2987764182424917</v>
       </c>
       <c r="K35" t="n">
-        <v>0.4812013348164628</v>
+        <v>-0.07719688542825365</v>
       </c>
       <c r="L35" t="n">
-        <v>0.4585094549499443</v>
+        <v>-0.02691879866518354</v>
       </c>
       <c r="M35" t="n">
-        <v>0.4340378197997775</v>
+        <v>-0.01357063403781988</v>
       </c>
       <c r="N35" t="n">
-        <v>0.6800889877641825</v>
+        <v>0.09454949944382651</v>
       </c>
       <c r="O35" t="n">
-        <v>0.4509454949944383</v>
+        <v>-0.09810901001112349</v>
       </c>
       <c r="P35" t="n">
-        <v>0.6053392658509456</v>
+        <v>-0.1759733036707454</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.4433815350389322</v>
+        <v>-0.005116796440489457</v>
       </c>
       <c r="R35" t="n">
-        <v>0.6169076751946607</v>
+        <v>0.03092324805339264</v>
       </c>
       <c r="S35" t="n">
-        <v>0.4104560622914349</v>
+        <v>0.0803114571746385</v>
       </c>
       <c r="T35" t="n">
-        <v>0.7837597330367074</v>
+        <v>-0.3205784204671858</v>
       </c>
       <c r="U35" t="n">
-        <v>0.6213570634037819</v>
+        <v>-0.2716351501668521</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2P</t>
+          <t>FTr</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2773399014778325</v>
+        <v>0.1586206896551724</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2147783251231528</v>
+        <v>0.05615763546798025</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.08654060066740832</v>
+        <v>0.2832035595105673</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.01134593993325916</v>
+        <v>0.004226918798665213</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.03403781979977749</v>
+        <v>-0.1884315906562848</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0100111234705228</v>
+        <v>0.1150166852057842</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.1194660734149056</v>
+        <v>0.1328142380422692</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.09410456062291428</v>
+        <v>0.4117908787541713</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.1586206896551725</v>
+        <v>0.3094549499443826</v>
       </c>
       <c r="K36" t="n">
-        <v>0.2467185761957731</v>
+        <v>0.2231368186874305</v>
       </c>
       <c r="L36" t="n">
-        <v>0.01446051167964402</v>
+        <v>0.3374860956618465</v>
       </c>
       <c r="M36" t="n">
-        <v>0.103448275862069</v>
+        <v>0.1265850945494994</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.0117908787541714</v>
+        <v>-0.1110122358175751</v>
       </c>
       <c r="O36" t="n">
-        <v>0.03937708565072306</v>
+        <v>-0.0500556173526141</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.1394883203559512</v>
+        <v>0.2476084538375973</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.1839822024471636</v>
+        <v>0.2458286985539488</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1136818687430479</v>
+        <v>-0.1012235817575085</v>
       </c>
       <c r="S36" t="n">
-        <v>0.1279199110122358</v>
+        <v>0.3067853170189099</v>
       </c>
       <c r="T36" t="n">
-        <v>0.1292547274749722</v>
+        <v>-0.2004449388209122</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1839822024471636</v>
+        <v>-0.0260289210233593</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2PA</t>
+          <t>3PAr</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.1059113300492611</v>
+        <v>0.2172413793103448</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.05960591133004933</v>
+        <v>0.02068965517241383</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.3833147942157953</v>
+        <v>0.3975528364849833</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.2943270300333705</v>
+        <v>0.3041156840934371</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.2636262513904337</v>
+        <v>0.3508342602892103</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.3072302558398221</v>
+        <v>0.3686318131256953</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.3886540600667407</v>
+        <v>0.3846496106785317</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.4936596218020022</v>
+        <v>0.4024471635150166</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.5314794215795329</v>
+        <v>0.3196885428253615</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.1773081201334816</v>
+        <v>0.1457174638487208</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.3677419354838709</v>
+        <v>0.3690767519466074</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.4505005561735262</v>
+        <v>0.3245828698553949</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.4242491657397107</v>
+        <v>0.4847608453837597</v>
       </c>
       <c r="O37" t="n">
-        <v>-0.3045606229143494</v>
+        <v>0.317908787541713</v>
       </c>
       <c r="P37" t="n">
-        <v>-0.3624026696329254</v>
+        <v>0.246273637374861</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.1942157953281425</v>
+        <v>0.1813125695216907</v>
       </c>
       <c r="R37" t="n">
-        <v>-0.2333704115684094</v>
+        <v>0.2965517241379311</v>
       </c>
       <c r="S37" t="n">
-        <v>-0.1394883203559512</v>
+        <v>0.110567296996663</v>
       </c>
       <c r="T37" t="n">
-        <v>-0.1296996662958843</v>
+        <v>0.1110122358175751</v>
       </c>
       <c r="U37" t="n">
-        <v>-0.05050055617352611</v>
+        <v>0.01045606229143492</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2P%</t>
+          <t>TS%</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.6354679802955665</v>
+        <v>0.6482758620689655</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5615763546798029</v>
+        <v>0.5669950738916256</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5457174638487208</v>
+        <v>0.6369299221357063</v>
       </c>
       <c r="E38" t="n">
-        <v>0.499888765294772</v>
+        <v>0.460734149054505</v>
       </c>
       <c r="F38" t="n">
-        <v>0.3997775305895439</v>
+        <v>0.3931034482758621</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6484983314794216</v>
+        <v>0.6725250278086763</v>
       </c>
       <c r="H38" t="n">
-        <v>0.7948832035595106</v>
+        <v>0.746384872080089</v>
       </c>
       <c r="I38" t="n">
-        <v>0.6062291434927698</v>
+        <v>0.7045606229143493</v>
       </c>
       <c r="J38" t="n">
-        <v>0.6934371523915461</v>
+        <v>0.7588431590656285</v>
       </c>
       <c r="K38" t="n">
-        <v>0.5875417130144605</v>
+        <v>0.6542825361512792</v>
       </c>
       <c r="L38" t="n">
-        <v>0.5804226918798665</v>
+        <v>0.6916573971078976</v>
       </c>
       <c r="M38" t="n">
-        <v>0.6418242491657398</v>
+        <v>0.72146829810901</v>
       </c>
       <c r="N38" t="n">
-        <v>0.7824249165739711</v>
+        <v>0.8149054505005562</v>
       </c>
       <c r="O38" t="n">
-        <v>0.6120133481646274</v>
+        <v>0.7032258064516129</v>
       </c>
       <c r="P38" t="n">
-        <v>0.6008898776418242</v>
+        <v>0.6809788654060067</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.6418242491657398</v>
+        <v>0.728587319243604</v>
       </c>
       <c r="R38" t="n">
-        <v>0.5292547274749722</v>
+        <v>0.7308120133481646</v>
       </c>
       <c r="S38" t="n">
-        <v>0.6035595105672971</v>
+        <v>0.728587319243604</v>
       </c>
       <c r="T38" t="n">
-        <v>0.5052280311457175</v>
+        <v>0.8162402669632925</v>
       </c>
       <c r="U38" t="n">
-        <v>0.424694104560623</v>
+        <v>0.6587319243604004</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>Off_eFG%</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.234975369458128</v>
+        <v>0.6004926108374384</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1093596059113301</v>
+        <v>0.5541871921182266</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2818687430478309</v>
+        <v>0.6173526140155728</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.07408231368186868</v>
+        <v>0.503448275862069</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2355951056729699</v>
+        <v>0.4754171301446051</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1724137931034483</v>
+        <v>0.6676307007786429</v>
       </c>
       <c r="H39" t="n">
-        <v>0.03314794215795325</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="I39" t="n">
-        <v>0.3793103448275862</v>
+        <v>0.6614015572858731</v>
       </c>
       <c r="J39" t="n">
-        <v>0.16440489432703</v>
+        <v>0.7063403781979978</v>
       </c>
       <c r="K39" t="n">
-        <v>0.1541713014460512</v>
+        <v>0.6351501668520578</v>
       </c>
       <c r="L39" t="n">
-        <v>0.3379310344827586</v>
+        <v>0.6231368186874304</v>
       </c>
       <c r="M39" t="n">
-        <v>0.2556173526140155</v>
+        <v>0.6872080088987764</v>
       </c>
       <c r="N39" t="n">
-        <v>0.07274749721913232</v>
+        <v>0.7948832035595106</v>
       </c>
       <c r="O39" t="n">
-        <v>0.01668520578420463</v>
+        <v>0.7121245828698555</v>
       </c>
       <c r="P39" t="n">
-        <v>0.1853170189098999</v>
+        <v>0.6413793103448275</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.3308120133481647</v>
+        <v>0.714349276974416</v>
       </c>
       <c r="R39" t="n">
-        <v>0.07986651835372638</v>
+        <v>0.7459399332591768</v>
       </c>
       <c r="S39" t="n">
-        <v>0.2218020022246942</v>
+        <v>0.7468298109010011</v>
       </c>
       <c r="T39" t="n">
-        <v>-0.01535038932146837</v>
+        <v>0.7503893214682982</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1813125695216907</v>
+        <v>0.6222469410456062</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>FTA</t>
+          <t>Off_TOV%</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1522167487684729</v>
+        <v>-0.4098522167487684</v>
       </c>
       <c r="C40" t="n">
-        <v>0.07093596059113305</v>
+        <v>-0.373399014778325</v>
       </c>
       <c r="D40" t="n">
-        <v>0.278309232480534</v>
+        <v>-0.3632925472747497</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.07497219132369293</v>
+        <v>-0.3979977753058954</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.1902113459399333</v>
+        <v>-0.5897664071190212</v>
       </c>
       <c r="G40" t="n">
-        <v>0.07897664071190214</v>
+        <v>-0.5354838709677419</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1159065628476085</v>
+        <v>-0.3201334816462735</v>
       </c>
       <c r="I40" t="n">
-        <v>0.3721913236929922</v>
+        <v>-0.3308120133481647</v>
       </c>
       <c r="J40" t="n">
-        <v>0.131924360400445</v>
+        <v>-0.2720800889877641</v>
       </c>
       <c r="K40" t="n">
-        <v>0.2146829810901001</v>
+        <v>-0.1541713014460511</v>
       </c>
       <c r="L40" t="n">
-        <v>0.3641824249165739</v>
+        <v>0.1345939933259177</v>
       </c>
       <c r="M40" t="n">
-        <v>0.08743047830923245</v>
+        <v>-0.07719688542825365</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.1038932146829812</v>
+        <v>-0.2244716351501668</v>
       </c>
       <c r="O40" t="n">
-        <v>0.002002224694104604</v>
+        <v>-0.3588431590656285</v>
       </c>
       <c r="P40" t="n">
-        <v>0.1897664071190212</v>
+        <v>-0.1523915461624026</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.2387096774193549</v>
+        <v>-0.2177975528364851</v>
       </c>
       <c r="R40" t="n">
-        <v>-0.03759733036707447</v>
+        <v>-0.3005561735261402</v>
       </c>
       <c r="S40" t="n">
-        <v>0.2484983314794216</v>
+        <v>-0.3681868743047831</v>
       </c>
       <c r="T40" t="n">
-        <v>-0.2</v>
+        <v>-0.2992213570634037</v>
       </c>
       <c r="U40" t="n">
-        <v>-0.08965517241379306</v>
+        <v>-0.318353726362625</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>FT%</t>
+          <t>Off_ORB%</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.1443349753694582</v>
+        <v>-0.09064039408866997</v>
       </c>
       <c r="C41" t="n">
-        <v>0.212807881773399</v>
+        <v>-0.09852216748768483</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0803114571746385</v>
+        <v>-0.2369299221357064</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0140155728587319</v>
+        <v>-0.06829810901001121</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.03136818687430476</v>
+        <v>-0.04471635150166842</v>
       </c>
       <c r="G41" t="n">
-        <v>0.2662958843159066</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.1612903225806452</v>
+        <v>0.1968854282536151</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.03581757508342598</v>
+        <v>-0.0402669632925472</v>
       </c>
       <c r="J41" t="n">
-        <v>0.3997775305895439</v>
+        <v>-0.2458286985539488</v>
       </c>
       <c r="K41" t="n">
-        <v>0.07853170189099001</v>
+        <v>0.1946607341490545</v>
       </c>
       <c r="L41" t="n">
-        <v>0.05539488320355956</v>
+        <v>0.1145717463848721</v>
       </c>
       <c r="M41" t="n">
-        <v>0.3312569521690768</v>
+        <v>-0.1056729699666297</v>
       </c>
       <c r="N41" t="n">
-        <v>0.3112347052280311</v>
+        <v>-0.1888765294771968</v>
       </c>
       <c r="O41" t="n">
-        <v>0.107452725250278</v>
+        <v>0.00111234705228036</v>
       </c>
       <c r="P41" t="n">
-        <v>-0.01846496106785311</v>
+        <v>0.04338153503893216</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.3339265850945495</v>
+        <v>0.175083426028921</v>
       </c>
       <c r="R41" t="n">
-        <v>0.2458286985539488</v>
+        <v>0.1577308120133482</v>
       </c>
       <c r="S41" t="n">
-        <v>0.1617352614015573</v>
+        <v>-0.1399332591768632</v>
       </c>
       <c r="T41" t="n">
-        <v>0.5443826473859844</v>
+        <v>0.2671857619577308</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3877641824249166</v>
+        <v>0.2315906562847608</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ORB</t>
+          <t>Off_FT/FGA</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.2359605911330049</v>
+        <v>0.2187192118226601</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.1561576354679803</v>
+        <v>0.1389162561576355</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.2444938820912124</v>
+        <v>0.268075639599555</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.1853170189098998</v>
+        <v>-0.04382647385984417</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.08164627363737487</v>
+        <v>-0.2311457174638487</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.09588431590656277</v>
+        <v>0.2266963292547275</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.1181312569521691</v>
+        <v>0.1154616240266964</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.2093437152391546</v>
+        <v>0.4629588431590657</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.4037819799777531</v>
+        <v>0.4135706340378198</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0140155728587319</v>
+        <v>0.196440489432703</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.07185761957730818</v>
+        <v>0.4100111234705228</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.3494994438264738</v>
+        <v>0.2778642936596218</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.3339265850945494</v>
+        <v>0.06073414905450503</v>
       </c>
       <c r="O42" t="n">
-        <v>-0.1261401557285873</v>
+        <v>0.0380422691879867</v>
       </c>
       <c r="P42" t="n">
-        <v>-0.05717463848720805</v>
+        <v>0.2182424916573971</v>
       </c>
       <c r="Q42" t="n">
-        <v>-0.03270300333704124</v>
+        <v>0.2703003337041157</v>
       </c>
       <c r="R42" t="n">
-        <v>0.03715239154616246</v>
+        <v>0.032258064516129</v>
       </c>
       <c r="S42" t="n">
-        <v>-0.2329254727474972</v>
+        <v>0.260511679644049</v>
       </c>
       <c r="T42" t="n">
-        <v>-0.01268075639599564</v>
+        <v>0.07363737486095667</v>
       </c>
       <c r="U42" t="n">
-        <v>-0.003781979977752981</v>
+        <v>0.1510567296996663</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>DRB</t>
+          <t>Def_eFG%</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.3645320197044335</v>
+        <v>-0.4852216748768472</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4039408866995073</v>
+        <v>-0.4931034482758621</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5906562847608454</v>
+        <v>-0.6618464961067854</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5586206896551724</v>
+        <v>-0.6088987764182425</v>
       </c>
       <c r="F43" t="n">
-        <v>0.6965517241379311</v>
+        <v>-0.7285873192436041</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3370411568409344</v>
+        <v>-0.7450500556173527</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5319243604004449</v>
+        <v>-0.8865406006674081</v>
       </c>
       <c r="I43" t="n">
-        <v>0.5337041156840934</v>
+        <v>-0.7081201334816463</v>
       </c>
       <c r="J43" t="n">
-        <v>0.5870967741935484</v>
+        <v>-0.7490545050055617</v>
       </c>
       <c r="K43" t="n">
-        <v>0.6418242491657398</v>
+        <v>-0.6329254727474971</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4674082313681869</v>
+        <v>-0.7112347052280312</v>
       </c>
       <c r="M43" t="n">
-        <v>0.4585094549499443</v>
+        <v>-0.7232480533926584</v>
       </c>
       <c r="N43" t="n">
-        <v>0.3023359288097887</v>
+        <v>-0.6315906562847609</v>
       </c>
       <c r="O43" t="n">
-        <v>0.6422691879866518</v>
+        <v>-0.7775305895439377</v>
       </c>
       <c r="P43" t="n">
-        <v>0.1510567296996663</v>
+        <v>-0.6008898776418243</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.3632925472747497</v>
+        <v>-0.5830923248053392</v>
       </c>
       <c r="R43" t="n">
-        <v>0.5372636262513905</v>
+        <v>-0.7508342602892102</v>
       </c>
       <c r="S43" t="n">
-        <v>0.6169076751946607</v>
+        <v>-0.8798665183537264</v>
       </c>
       <c r="T43" t="n">
-        <v>0.3984427141268075</v>
+        <v>-0.6938820912124584</v>
       </c>
       <c r="U43" t="n">
-        <v>0.389098998887653</v>
+        <v>-0.5679644048943271</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>TRB</t>
+          <t>Def_TOV%</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.1236453201970443</v>
+        <v>0.3157635467980295</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1674876847290641</v>
+        <v>0.3182266009852217</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4487208008898776</v>
+        <v>0.006006674082313701</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5136818687430478</v>
+        <v>-0.09187986651835378</v>
       </c>
       <c r="F44" t="n">
-        <v>0.546607341490545</v>
+        <v>-0.01490545050055614</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1875417130144605</v>
+        <v>0.1550611790878754</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4451612903225807</v>
+        <v>0.1256952169076752</v>
       </c>
       <c r="I44" t="n">
-        <v>0.3192436040044494</v>
+        <v>-0.08298109010011134</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1733036707452725</v>
+        <v>-0.05494994438264733</v>
       </c>
       <c r="K44" t="n">
-        <v>0.457174638487208</v>
+        <v>0.1412680756395995</v>
       </c>
       <c r="L44" t="n">
+        <v>0.2694104560622914</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.1385984427141268</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.1403781979977753</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.0002224694104561165</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.192880978865406</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.1363737486095662</v>
+      </c>
+      <c r="R44" t="n">
+        <v>-0.1096774193548387</v>
+      </c>
+      <c r="S44" t="n">
+        <v>-0.04872080088987762</v>
+      </c>
+      <c r="T44" t="n">
+        <v>-0.1968854282536152</v>
+      </c>
+      <c r="U44" t="n">
         <v>0.2774193548387097</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.2476084538375973</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0.06696329254727473</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0.3979977753058954</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0.05761957730812017</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0.2516129032258064</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0.4660734149054505</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0.4549499443826474</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0.3254727474972191</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0.3815350389321468</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>AST</t>
+          <t>Def_DRB%</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.4620689655172414</v>
+        <v>0.1428571428571429</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5571428571428572</v>
+        <v>0.4812807881773399</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1501668520578421</v>
+        <v>0.1728587319243604</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3410456062291435</v>
+        <v>0.3757508342602892</v>
       </c>
       <c r="F45" t="n">
-        <v>0.4251390433815351</v>
+        <v>0.4749721913236929</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4433815350389322</v>
+        <v>0.424694104560623</v>
       </c>
       <c r="H45" t="n">
-        <v>0.2369299221357063</v>
+        <v>0.4949944382647385</v>
       </c>
       <c r="I45" t="n">
-        <v>0.3975528364849833</v>
+        <v>0.4807563959955506</v>
       </c>
       <c r="J45" t="n">
-        <v>0.2747497219132369</v>
+        <v>0.460734149054505</v>
       </c>
       <c r="K45" t="n">
-        <v>0.2707452725250278</v>
+        <v>0.5159065628476085</v>
       </c>
       <c r="L45" t="n">
-        <v>0.2938820912124583</v>
+        <v>0.296106785317019</v>
       </c>
       <c r="M45" t="n">
-        <v>0.4060066740823137</v>
+        <v>0.2996662958843159</v>
       </c>
       <c r="N45" t="n">
-        <v>0.6952169076751946</v>
+        <v>0.02291434927697444</v>
       </c>
       <c r="O45" t="n">
-        <v>0.2498331479421579</v>
+        <v>0.2889877641824249</v>
       </c>
       <c r="P45" t="n">
-        <v>0.3383759733036708</v>
+        <v>-0.03893214682981094</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.09899888765294773</v>
+        <v>0.2253615127919911</v>
       </c>
       <c r="R45" t="n">
-        <v>0.3766407119021135</v>
+        <v>0.4442714126807564</v>
       </c>
       <c r="S45" t="n">
-        <v>0.1417130144605117</v>
+        <v>0.3259176863181312</v>
       </c>
       <c r="T45" t="n">
-        <v>0.1288097886540601</v>
+        <v>0.4700778642936596</v>
       </c>
       <c r="U45" t="n">
-        <v>0.3201334816462736</v>
+        <v>0.5038932146829811</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>STL</t>
+          <t>Def_FT/FGA</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2965517241379311</v>
+        <v>-0.4014778325123152</v>
       </c>
       <c r="C46" t="n">
-        <v>0.2147783251231528</v>
+        <v>-0.2369458128078819</v>
       </c>
       <c r="D46" t="n">
-        <v>0.04338153503893216</v>
+        <v>-0.3023359288097887</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.04516129032258065</v>
+        <v>-0.4807563959955505</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.06473859844271423</v>
+        <v>-0.2302558398220245</v>
       </c>
       <c r="G46" t="n">
-        <v>0.232035595105673</v>
+        <v>-0.2582869855394883</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1532814238042269</v>
+        <v>-0.2845383759733038</v>
       </c>
       <c r="I46" t="n">
-        <v>0.02647385984427142</v>
+        <v>-0.2694104560622914</v>
       </c>
       <c r="J46" t="n">
-        <v>0.1359288097886541</v>
+        <v>-0.5937708565072302</v>
       </c>
       <c r="K46" t="n">
-        <v>0.1799777530589544</v>
+        <v>-0.3272525027808677</v>
       </c>
       <c r="L46" t="n">
-        <v>0.5283648498331479</v>
+        <v>-0.189766407119021</v>
       </c>
       <c r="M46" t="n">
-        <v>0.1163515016685206</v>
+        <v>-0.3303670745272524</v>
       </c>
       <c r="N46" t="n">
-        <v>0.2520578420467185</v>
+        <v>-0.3490545050055618</v>
       </c>
       <c r="O46" t="n">
-        <v>0.08787541713014457</v>
+        <v>-0.2222469410456063</v>
       </c>
       <c r="P46" t="n">
-        <v>0.1666295884315907</v>
+        <v>-0.2498331479421581</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.3979977753058954</v>
+        <v>-0.189321468298109</v>
       </c>
       <c r="R46" t="n">
-        <v>0.1216907675194661</v>
+        <v>-0.1635150166852057</v>
       </c>
       <c r="S46" t="n">
-        <v>0.01134593993325916</v>
+        <v>-0.2040044493882092</v>
       </c>
       <c r="T46" t="n">
-        <v>-0.1221357063403783</v>
+        <v>-0.09810901001112349</v>
       </c>
       <c r="U46" t="n">
-        <v>0.2676307007786429</v>
+        <v>-0.1479421579532814</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BLK</t>
+          <t>Arena</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01231527093596063</v>
+        <v>-0.01773399014778332</v>
       </c>
       <c r="C47" t="n">
-        <v>0.2566502463054188</v>
+        <v>-0.126600985221675</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3846496106785317</v>
+        <v>-0.05717463848720805</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3895439377085651</v>
+        <v>-0.1853170189098998</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2698553948832035</v>
+        <v>0.01802002224694099</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2177975528364849</v>
+        <v>0.2057842046718577</v>
       </c>
       <c r="H47" t="n">
-        <v>0.2667408231368187</v>
+        <v>0.03448275862068961</v>
       </c>
       <c r="I47" t="n">
-        <v>0.3859844271412681</v>
+        <v>-0.2151279199110123</v>
       </c>
       <c r="J47" t="n">
-        <v>0.06206896551724139</v>
+        <v>-0.2809788654060066</v>
       </c>
       <c r="K47" t="n">
-        <v>0.2186874304783092</v>
+        <v>-0.3103448275862069</v>
       </c>
       <c r="L47" t="n">
-        <v>0.35706340378198</v>
+        <v>-0.3686318131256952</v>
       </c>
       <c r="M47" t="n">
-        <v>0.349944382647386</v>
+        <v>-0.2725250278086764</v>
       </c>
       <c r="N47" t="n">
-        <v>0.2</v>
+        <v>-0.1136818687430479</v>
       </c>
       <c r="O47" t="n">
-        <v>0.3232480533926585</v>
+        <v>-0.3454949944382648</v>
       </c>
       <c r="P47" t="n">
-        <v>0.1488320355951057</v>
+        <v>-0.03314794215795325</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.4496106785317019</v>
+        <v>0.1292547274749722</v>
       </c>
       <c r="R47" t="n">
-        <v>0.2921023359288097</v>
+        <v>0.01979977753058959</v>
       </c>
       <c r="S47" t="n">
-        <v>0.3770856507230256</v>
+        <v>-0.02558398220244706</v>
       </c>
       <c r="T47" t="n">
-        <v>-0.01357063403781988</v>
+        <v>0.07675194660734153</v>
       </c>
       <c r="U47" t="n">
-        <v>-0.1515016685205783</v>
+        <v>0.07764182424916577</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>TOV</t>
+          <t>Attend.</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.3251231527093597</v>
+        <v>0.4349753694581281</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.452216748768473</v>
+        <v>0.1857142857142857</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.4269187986651835</v>
+        <v>0.4923248053392658</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.5225806451612902</v>
+        <v>0.5595105672969967</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.5341490545050056</v>
+        <v>0.7294771968854283</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.5256952169076752</v>
+        <v>0.3708565072302559</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.3957730812013349</v>
+        <v>0.4491657397107898</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.4015572858731924</v>
+        <v>0.5639599555061179</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.421579532814238</v>
+        <v>0.4478309232480534</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.2707452725250279</v>
+        <v>0.4567296996662958</v>
       </c>
       <c r="L48" t="n">
-        <v>0.08209121245828699</v>
+        <v>0.5056729699666296</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.1795328142380423</v>
+        <v>0.5452725250278087</v>
       </c>
       <c r="N48" t="n">
-        <v>-0.2556173526140155</v>
+        <v>0.4611790878754172</v>
       </c>
       <c r="O48" t="n">
-        <v>-0.3143492769744161</v>
+        <v>0.5216907675194661</v>
       </c>
       <c r="P48" t="n">
-        <v>-0.2035595105672969</v>
+        <v>0.2836484983314794</v>
       </c>
       <c r="Q48" t="n">
-        <v>-0.2071190211345939</v>
+        <v>0.3846496106785317</v>
       </c>
       <c r="R48" t="n">
-        <v>-0.260956618464961</v>
+        <v>0.2453837597330367</v>
       </c>
       <c r="S48" t="n">
-        <v>-0.3441601779755283</v>
+        <v>0.2529477196885428</v>
       </c>
       <c r="T48" t="n">
-        <v>-0.3494994438264738</v>
+        <v>0.1764182424916574</v>
       </c>
       <c r="U48" t="n">
-        <v>-0.3192436040044493</v>
+        <v>0.4718576195773081</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>Attend./G</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0.4068965517241379</v>
+        <v>0.4349753694581281</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.3783251231527094</v>
+        <v>0.2004926108374384</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.3543937708565073</v>
+        <v>0.4923248053392658</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.6209121245828699</v>
+        <v>0.5604004449388209</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.3641824249165739</v>
+        <v>0.7294771968854283</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.1955506117908787</v>
+        <v>0.3708565072302559</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.2173526140155728</v>
+        <v>0.4491657397107898</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.2680756395995552</v>
+        <v>0.5639599555061179</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.4932146829810902</v>
+        <v>0.4478309232480534</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.2480533926585096</v>
+        <v>0.4567296996662958</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.1555061179087875</v>
+        <v>0.4945494994438264</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.2400444938820911</v>
+        <v>0.5452725250278087</v>
       </c>
       <c r="N49" t="n">
-        <v>-0.2947719688542825</v>
+        <v>0.4727474972191323</v>
       </c>
       <c r="O49" t="n">
-        <v>-0.2338153503893214</v>
+        <v>0.5216907675194661</v>
       </c>
       <c r="P49" t="n">
-        <v>-0.2071190211345939</v>
+        <v>0.2836484983314794</v>
       </c>
       <c r="Q49" t="n">
-        <v>-0.1145717463848721</v>
+        <v>0.3913236929922136</v>
       </c>
       <c r="R49" t="n">
-        <v>-0.08787541713014457</v>
+        <v>0.2409343715239155</v>
       </c>
       <c r="S49" t="n">
-        <v>-0.06963292547274746</v>
+        <v>0.5310344827586206</v>
       </c>
       <c r="T49" t="n">
-        <v>-0.03759733036707447</v>
+        <v>0.1764182424916574</v>
       </c>
       <c r="U49" t="n">
-        <v>-0.07319243604004444</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>PTS</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>0.5458128078817734</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.2167487684729064</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.5070077864293659</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.2253615127919911</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.2987764182424917</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0.4131256952169077</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.2996662958843159</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.4727474972191323</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.3156840934371524</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.4416017797552837</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.5657397107897664</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0.5150166852057843</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0.6969966629588431</v>
-      </c>
-      <c r="O50" t="n">
-        <v>0.6342602892102336</v>
-      </c>
-      <c r="P50" t="n">
-        <v>0.4295884315906563</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>0.642714126807564</v>
-      </c>
-      <c r="R50" t="n">
-        <v>0.5586206896551724</v>
-      </c>
-      <c r="S50" t="n">
-        <v>0.4838709677419355</v>
-      </c>
-      <c r="T50" t="n">
-        <v>0.642714126807564</v>
-      </c>
-      <c r="U50" t="n">
-        <v>0.5056729699666296</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Made_Playoffs</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0.722167487684729</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.6940886699507389</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.7103448275862069</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.7236929922135706</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.7352614015572858</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.7810901001112347</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.7953281423804227</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0.7370411568409343</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.7655172413793103</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.7672969966629588</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0.6307007786429366</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.6796440489432702</v>
-      </c>
-      <c r="N51" t="n">
-        <v>0.7561735261401558</v>
-      </c>
-      <c r="O51" t="n">
-        <v>0.6907675194660734</v>
-      </c>
-      <c r="P51" t="n">
-        <v>0.7828698553948832</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>0.8157953281423804</v>
-      </c>
-      <c r="R51" t="n">
-        <v>0.7210233592880979</v>
-      </c>
-      <c r="S51" t="n">
-        <v>0.7103448275862069</v>
-      </c>
-      <c r="T51" t="n">
-        <v>0.7317018909899888</v>
-      </c>
-      <c r="U51" t="n">
-        <v>0.7339265850945496</v>
+        <v>0.4718576195773081</v>
       </c>
     </row>
   </sheetData>
